--- a/main/authorize.xlsx
+++ b/main/authorize.xlsx
@@ -64,13 +64,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.98828125" customWidth="true"/>
-    <col min="2" max="2" width="11.74609375" customWidth="true"/>
-    <col min="3" max="3" width="16.109375" customWidth="true"/>
-    <col min="4" max="4" width="11.74609375" customWidth="true"/>
-    <col min="5" max="5" width="19.22265625" customWidth="true"/>
-    <col min="6" max="6" width="17.97265625" customWidth="true"/>
-    <col min="7" max="7" width="11.74609375" customWidth="true"/>
+    <col min="1" max="1" width="9.25" customWidth="true"/>
+    <col min="2" max="2" width="9.25" customWidth="true"/>
+    <col min="3" max="3" width="11.12109375" customWidth="true"/>
+    <col min="4" max="4" width="9.25" customWidth="true"/>
+    <col min="5" max="5" width="12.9921875" customWidth="true"/>
+    <col min="6" max="6" width="12.9921875" customWidth="true"/>
+    <col min="7" max="7" width="9.25" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/main/authorize.xlsx
+++ b/main/authorize.xlsx
@@ -64,13 +64,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="true"/>
-    <col min="2" max="2" width="9.25" customWidth="true"/>
-    <col min="3" max="3" width="11.12109375" customWidth="true"/>
-    <col min="4" max="4" width="9.25" customWidth="true"/>
-    <col min="5" max="5" width="12.9921875" customWidth="true"/>
-    <col min="6" max="6" width="12.9921875" customWidth="true"/>
-    <col min="7" max="7" width="9.25" customWidth="true"/>
+    <col min="1" max="1" width="12.98828125" customWidth="true"/>
+    <col min="2" max="2" width="11.74609375" customWidth="true"/>
+    <col min="3" max="3" width="16.109375" customWidth="true"/>
+    <col min="4" max="4" width="11.74609375" customWidth="true"/>
+    <col min="5" max="5" width="19.22265625" customWidth="true"/>
+    <col min="6" max="6" width="17.97265625" customWidth="true"/>
+    <col min="7" max="7" width="11.74609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
